--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Intent_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Intent_JS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="119">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -1034,6 +1034,271 @@
 ChangeConfigxml(Configuration/Applications/Application,EnableReceiver,&lt;EnableReceiver  value="1"/&gt;);
 ChangeConfigxml(Configuration/Applications/Application,IntentAction,&lt;IntentAction  value="com.symbol.BROADCAST"/&gt;endl        &lt;IntentAction  value="android.intent.action.MAIN"/&gt;endl        &lt;IntentAction  value="com.smap.targetapp.mySecondAction"/&gt;);
 PushConfigxml;</t>
+  </si>
+  <si>
+    <t>Start Activity with Intent_Action and Intent_Category</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_51_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+ClickUIButtonText(Close_and_return_result);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+validate_App_Exist_Device=com.smap.targetapp
+};
+validate2
+{
+validate_PageTitle=Intent JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT328_51
+};
+validate4
+{
+validate_App_Launched_Device=com.smap.targetapp
+};</t>
+  </si>
+  <si>
+    <t>Suggest different applications to send text message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_43_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Intent JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT328_43
+};
+validate4
+{
+validate_App_Launched_Device=com.android.email
+validate_CompareEditText=0,Subject
+validate_CompareEditText=1,This_is_message_to_be_sent!
+};</t>
+  </si>
+  <si>
+    <t>uri - Launch Message application with data from test app by setting URI "sms:9611896991"</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_30_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+press_Key(Home);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Intent JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT328_30
+};
+validate4
+{
+validate_App_Launched_Device=com.android.mms
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_40_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+CheckUITextContains(com.symbol.BROADCAST);
+CheckUITextContains(broadcast);
+CheckUITextContains(data);
+ClickUIButtonText(OK);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Intent JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT328_40
+};
+</t>
+  </si>
+  <si>
+    <t>Stop listening to background intents before executing startListening method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_42_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+CheckUITextContains(stoplistening);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Intent JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT328_42
+};
+</t>
+  </si>
+  <si>
+    <t>Sending an intent with null in place of callback function</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_49_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+ClickUIButtonText(Close_and_return_result);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+validate_App_Exist_Device=com.smap.targetapp
+};
+validate2
+{
+validate_PageTitle=Intent JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT328_49
+};
+validate4
+{
+validate_App_Launched_Device=com.smap.targetapp
+};</t>
+  </si>
+  <si>
+    <t>Start Listening to the background intents callback without argument</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_50_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+CheckUITextContains(Callback_without_arguments);
+ClickUIButtonText(OK);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Intent JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT328_50
+};
+</t>
+  </si>
+  <si>
+    <t>Start Listening to the background intents - broadcast messages (receiving broadcast messages)with action main</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_52_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+CheckUITextContains(android.intent.action.MAIN);
+CheckUITextContains(broadcast);
+CheckUITextContains(data);
+ClickUIButtonText(OK);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Intent JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT328_52
+};
+</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1225,6 +1490,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1522,10 +1790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2329,6 +2597,194 @@
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="1:11" ht="216.75">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <v>1</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="229.5">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="204">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="165.75">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11">
+        <v>1</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="165.75">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="216.75">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11">
+        <v>1</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="165.75">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="11">
+        <v>1</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="165.75">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11">
+        <v>1</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="9">
+        <v>1</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Intent_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Intent_JS.xlsx
@@ -1026,279 +1026,279 @@
 CheckUITextContains(stoplistening);</t>
   </si>
   <si>
+    <t>Start Activity with Intent_Action and Intent_Category</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_51_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+ClickUIButtonText(Close_and_return_result);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+validate_App_Exist_Device=com.smap.targetapp
+};
+validate2
+{
+validate_PageTitle=Intent JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT328_51
+};
+validate4
+{
+validate_App_Launched_Device=com.smap.targetapp
+};</t>
+  </si>
+  <si>
+    <t>Suggest different applications to send text message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_43_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Intent JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT328_43
+};
+validate4
+{
+validate_App_Launched_Device=com.android.email
+validate_CompareEditText=0,Subject
+validate_CompareEditText=1,This_is_message_to_be_sent!
+};</t>
+  </si>
+  <si>
+    <t>uri - Launch Message application with data from test app by setting URI "sms:9611896991"</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_30_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+press_Key(Home);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Intent JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT328_30
+};
+validate4
+{
+validate_App_Launched_Device=com.android.mms
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_40_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+CheckUITextContains(com.symbol.BROADCAST);
+CheckUITextContains(broadcast);
+CheckUITextContains(data);
+ClickUIButtonText(OK);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Intent JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT328_40
+};
+</t>
+  </si>
+  <si>
+    <t>Stop listening to background intents before executing startListening method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_42_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+CheckUITextContains(stoplistening);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Intent JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT328_42
+};
+</t>
+  </si>
+  <si>
+    <t>Sending an intent with null in place of callback function</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_49_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+ClickUIButtonText(Close_and_return_result);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+validate_App_Exist_Device=com.smap.targetapp
+};
+validate2
+{
+validate_PageTitle=Intent JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT328_49
+};
+validate4
+{
+validate_App_Launched_Device=com.smap.targetapp
+};</t>
+  </si>
+  <si>
+    <t>Start Listening to the background intents callback without argument</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_50_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+CheckUITextContains(Callback_without_arguments);
+ClickUIButtonText(OK);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Intent JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT328_50
+};
+</t>
+  </si>
+  <si>
+    <t>Start Listening to the background intents - broadcast messages (receiving broadcast messages)with action main</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_52_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+CheckUITextContains(android.intent.action.MAIN);
+CheckUITextContains(broadcast);
+CheckUITextContains(data);
+ClickUIButtonText(OK);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Intent JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT328_52
+};
+</t>
+  </si>
+  <si>
     <t>wait(3);
 PullConfigxml;
 ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
 ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\manual_common_spec\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
 ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
 ChangeConfigxml(Configuration/Applications/Application,EnableReceiver,&lt;EnableReceiver  value="1"/&gt;);
-ChangeConfigxml(Configuration/Applications/Application,IntentAction,&lt;IntentAction  value="com.symbol.BROADCAST"/&gt;endl        &lt;IntentAction  value="android.intent.action.MAIN"/&gt;endl        &lt;IntentAction  value="com.smap.targetapp.mySecondAction"/&gt;);
+ChangeConfigxml(Configuration/Applications/Application,IntentAction,&lt;IntentAction  value="com.symbol.BROADCAST"/&gt;&lt;IntentAction  value="android.intent.action.MAIN"/&gt;&lt;IntentAction  value="com.smap.targetapp.mySecondAction"/&gt;);
 PushConfigxml;</t>
-  </si>
-  <si>
-    <t>Start Activity with Intent_Action and Intent_Category</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(intent_test_link);
-validate2;
-SelectTestToRun(VT328_51_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;
-ClickUIButtonText(Close_and_return_result);</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-validate_App_Exist_Device=com.smap.targetapp
-};
-validate2
-{
-validate_PageTitle=Intent JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT328_51
-};
-validate4
-{
-validate_App_Launched_Device=com.smap.targetapp
-};</t>
-  </si>
-  <si>
-    <t>Suggest different applications to send text message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(intent_test_link);
-validate2;
-SelectTestToRun(VT328_43_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Intent JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT328_43
-};
-validate4
-{
-validate_App_Launched_Device=com.android.email
-validate_CompareEditText=0,Subject
-validate_CompareEditText=1,This_is_message_to_be_sent!
-};</t>
-  </si>
-  <si>
-    <t>uri - Launch Message application with data from test app by setting URI "sms:9611896991"</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(intent_test_link);
-validate2;
-SelectTestToRun(VT328_30_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;
-press_Key(Home);</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Intent JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT328_30
-};
-validate4
-{
-validate_App_Launched_Device=com.android.mms
-};</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(intent_test_link);
-validate2;
-SelectTestToRun(VT328_40_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-CheckUITextContains(com.symbol.BROADCAST);
-CheckUITextContains(broadcast);
-CheckUITextContains(data);
-ClickUIButtonText(OK);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Intent JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT328_40
-};
-</t>
-  </si>
-  <si>
-    <t>Stop listening to background intents before executing startListening method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(intent_test_link);
-validate2;
-SelectTestToRun(VT328_42_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-CheckUITextContains(stoplistening);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Intent JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT328_42
-};
-</t>
-  </si>
-  <si>
-    <t>Sending an intent with null in place of callback function</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(intent_test_link);
-validate2;
-SelectTestToRun(VT328_49_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;
-ClickUIButtonText(Close_and_return_result);</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-validate_App_Exist_Device=com.smap.targetapp
-};
-validate2
-{
-validate_PageTitle=Intent JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT328_49
-};
-validate4
-{
-validate_App_Launched_Device=com.smap.targetapp
-};</t>
-  </si>
-  <si>
-    <t>Start Listening to the background intents callback without argument</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(intent_test_link);
-validate2;
-SelectTestToRun(VT328_50_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-CheckUITextContains(Callback_without_arguments);
-ClickUIButtonText(OK);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Intent JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT328_50
-};
-</t>
-  </si>
-  <si>
-    <t>Start Listening to the background intents - broadcast messages (receiving broadcast messages)with action main</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(intent_test_link);
-validate2;
-SelectTestToRun(VT328_52_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-CheckUITextContains(android.intent.action.MAIN);
-CheckUITextContains(broadcast);
-CheckUITextContains(data);
-ClickUIButtonText(OK);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Intent JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT328_52
-};
-</t>
   </si>
 </sst>
 </file>
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
@@ -2610,16 +2610,16 @@
         <v>10</v>
       </c>
       <c r="E30" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="F30" s="9">
-        <v>1</v>
-      </c>
-      <c r="G30" s="9" t="s">
+      <c r="H30" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="229.5">
@@ -2634,14 +2634,14 @@
         <v>10</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="204">
@@ -2656,14 +2656,14 @@
         <v>10</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="165.75">
@@ -2684,10 +2684,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="165.75">
@@ -2702,16 +2702,16 @@
         <v>10</v>
       </c>
       <c r="E34" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="9">
-        <v>1</v>
-      </c>
-      <c r="G34" s="9" t="s">
+      <c r="H34" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="216.75">
@@ -2726,16 +2726,16 @@
         <v>10</v>
       </c>
       <c r="E35" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="9">
-        <v>1</v>
-      </c>
-      <c r="G35" s="9" t="s">
+      <c r="H35" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="165.75">
@@ -2750,16 +2750,16 @@
         <v>10</v>
       </c>
       <c r="E36" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="9">
-        <v>1</v>
-      </c>
-      <c r="G36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="165.75">
@@ -2774,16 +2774,16 @@
         <v>10</v>
       </c>
       <c r="E37" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="9">
+        <v>1</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F37" s="9">
-        <v>1</v>
-      </c>
-      <c r="G37" s="9" t="s">
+      <c r="H37" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Intent_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Intent_JS.xlsx
@@ -158,65 +158,13 @@
     <t>category - Launch Calendar from test application by setting category "CATEGORY_APP_CALENDAR" and action "ACTION_MAIN"</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(intent_test_link);
-validate2;
-SelectTestToRun(VT328_14_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;
-</t>
-  </si>
-  <si>
     <t>category - Launch contacts from test application by setting category "CATEGORY_APP_CONTACTS" and action "ACTION_MAIN"</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(intent_test_link);
-validate2;
-SelectTestToRun(VT328_17_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;
-</t>
-  </si>
-  <si>
     <t>category - Launch Email application from test application by setting category "CATEGORY_APP_EMAIL" and action "ACTION_MAIN"</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(intent_test_link);
-validate2;
-SelectTestToRun(VT328_18_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;
-</t>
-  </si>
-  <si>
     <t>category - Launch Gallery application from test app by setting category "CATEGORY_APP_GALLERY" and action "ACTION_MAIN"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(intent_test_link);
-validate2;
-SelectTestToRun(VT328_19_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;
-</t>
   </si>
   <si>
     <t>wait(3);
@@ -247,83 +195,16 @@
     <t>uri - Launch URL via browser appliation from test app by setting URI "http://www.google.com"</t>
   </si>
   <si>
-    <t>wait(3);
-validate1;
-link_Click(intent_test_link);
-validate2;
-SelectTestToRun(VT328_29_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;
-SwitchApp(NATIVE_APP);
-wait(2);
-CheckUITextContains(Google);</t>
-  </si>
-  <si>
     <t>uri - Launch Email appliation with data from test app by setting URI "mailto:abcd@domain.com"</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(intent_test_link);
-validate2;
-SelectTestToRun(VT328_31_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;
-</t>
-  </si>
-  <si>
     <t>uri - Launch dialler with pre-filled number from test application by setting URI "tel:9611896991" and with Action: ACTION_DIAL'</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(intent_test_link);
-validate2;
-SelectTestToRun(VT328_32_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;
-</t>
-  </si>
-  <si>
     <t>uri - Launch Contacts from test application via Uri "content://contacts/people/" and Action: ACTION_VIEW'</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(intent_test_link);
-validate2;
-SelectTestToRun(VT328_35_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;
-</t>
-  </si>
-  <si>
     <t>uri - Launch Email compose screen with pre-filled email from test application by setting URI and data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(intent_test_link);
-validate2;
-SelectTestToRun(VT328_37_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;
-</t>
   </si>
   <si>
     <t>wait(3);
@@ -355,31 +236,6 @@
   </si>
   <si>
     <t>Send intent to view jpeg from package</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(intent_test_link);
-validate2;
-SelectTestToRun(VT328_45_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;
-</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(intent_test_link);
-validate2;
-SelectTestToRun(VT328_21_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;</t>
   </si>
   <si>
     <t>category - Launch Message application from test app by setting category "CATEGORY_APP_MESSAGING" and action "ACTION_MAIN"</t>
@@ -710,24 +566,6 @@
 };
 validate3
 {
-validate_OldText_Exists=VT328_45
-};
-validate4
-{
-validate_App_Launched_Device=com.android.gallery3d
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Intent JS Test
-};
-validate3
-{
 validate_OldText_Exists=VT328_21
 };
 validate4
@@ -753,34 +591,6 @@
 validate_App_Launched_Device=com.android.mms
 validate_CompareEditText=0,This_is_message_body_!
 };</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-wait(2);
-link_Click(intent_test_link);
-validate2;
-SelectTestToRun(VT328_15_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-wait(2);
-link_Click(intent_test_link);
-validate2;
-SelectTestToRun(VT328_16_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;
-</t>
   </si>
   <si>
     <t>validate1
@@ -964,19 +774,6 @@
 validate_OldText_Exists=VT328_05
 };
 </t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(intent_test_link);
-validate2;
-SelectTestToRun(VT328_23_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;
-press_Key(Home);</t>
   </si>
   <si>
     <t>wait(3);
@@ -1064,19 +861,6 @@
     <t>Suggest different applications to send text message</t>
   </si>
   <si>
-    <t xml:space="preserve">wait(3);
-validate1;
-link_Click(intent_test_link);
-validate2;
-SelectTestToRun(VT328_43_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;
-</t>
-  </si>
-  <si>
     <t>validate1
 {
 validate_PageTitle=Manual specs
@@ -1098,19 +882,6 @@
   </si>
   <si>
     <t>uri - Launch Message application with data from test app by setting URI "sms:9611896991"</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(intent_test_link);
-validate2;
-SelectTestToRun(VT328_30_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;
-press_Key(Home);</t>
   </si>
   <si>
     <t>validate1
@@ -1299,6 +1070,248 @@
 ChangeConfigxml(Configuration/Applications/Application,EnableReceiver,&lt;EnableReceiver  value="1"/&gt;);
 ChangeConfigxml(Configuration/Applications/Application,IntentAction,&lt;IntentAction  value="com.symbol.BROADCAST"/&gt;&lt;IntentAction  value="android.intent.action.MAIN"/&gt;&lt;IntentAction  value="com.smap.targetapp.mySecondAction"/&gt;);
 PushConfigxml;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_14_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+press_Key(Back);
+</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+wait(2);
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_15_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+press_Key(Back);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+wait(2);
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_16_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+press_Key(Back);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_17_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+press_Key(Back);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_18_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+press_Key(Back);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_19_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+press_Key(Back);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Intent JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT328_45
+};
+validate4
+{
+validate_App_Launched_Device=com.android.gallery3d
+};
+validate5
+{
+validate_Screenshot=VT328-19
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_43_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+press_Key(Back);
+press_Key(Back);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_21_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+press_Key(Back);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_37_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+press_Key(Back);
+press_Key(Back);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_35_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+press_Key(Back);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_32_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+press_Key(Back);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_31_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+press_Key(Back);
+press_Key(Back);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_29_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+SwitchApp(NATIVE_APP);
+wait(2);
+CheckUITextContains(Google);
+press_Key(Back);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_45_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+UIAutomatorScreenshot(VT328-19);
+validate4;
+press_Key(Back);
+validate5;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_23_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+press_Key(Back);
+press_Key(Back);
+ClickUIButtonText(OK);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_30_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+press_Key(Back);</t>
   </si>
 </sst>
 </file>
@@ -1792,9 +1805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1854,13 +1865,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F2" s="9">
         <v>1</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
@@ -1890,7 +1901,7 @@
         <v>21</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
@@ -1917,7 +1928,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -1941,10 +1952,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -1968,10 +1979,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1995,10 +2006,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -2022,10 +2033,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -2049,10 +2060,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -2076,10 +2087,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -2103,10 +2114,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -2133,7 +2144,7 @@
         <v>24</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -2157,10 +2168,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -2184,10 +2195,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -2214,7 +2225,7 @@
         <v>28</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -2238,10 +2249,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -2265,10 +2276,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -2292,10 +2303,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -2313,16 +2324,16 @@
         <v>10</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="9">
         <v>1</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -2340,16 +2351,16 @@
         <v>10</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F20" s="9">
         <v>1</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -2367,16 +2378,16 @@
         <v>10</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F21" s="9">
         <v>1</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -2394,16 +2405,16 @@
         <v>10</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F22" s="9">
         <v>1</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -2421,16 +2432,16 @@
         <v>10</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F23" s="9">
         <v>1</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -2448,16 +2459,16 @@
         <v>10</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F24" s="9">
         <v>1</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -2475,16 +2486,16 @@
         <v>10</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F25" s="9">
         <v>1</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -2502,22 +2513,22 @@
         <v>10</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F26" s="9">
         <v>1</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
     </row>
-    <row r="27" spans="1:11" ht="204">
+    <row r="27" spans="1:11" ht="255">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -2529,16 +2540,16 @@
         <v>10</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F27" s="9">
         <v>1</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -2556,16 +2567,16 @@
         <v>10</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F28" s="9">
         <v>1</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -2583,16 +2594,16 @@
         <v>10</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F29" s="9">
         <v>1</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -2610,16 +2621,16 @@
         <v>10</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F30" s="9">
         <v>1</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="229.5">
@@ -2634,14 +2645,14 @@
         <v>10</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="9" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="204">
@@ -2656,14 +2667,14 @@
         <v>10</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="9" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="165.75">
@@ -2684,10 +2695,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="165.75">
@@ -2702,16 +2713,16 @@
         <v>10</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="F34" s="9">
         <v>1</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="216.75">
@@ -2726,16 +2737,16 @@
         <v>10</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="F35" s="9">
         <v>1</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="165.75">
@@ -2750,16 +2761,16 @@
         <v>10</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F36" s="9">
         <v>1</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="165.75">
@@ -2774,16 +2785,16 @@
         <v>10</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F37" s="9">
         <v>1</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Intent_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBManual_Intent_JS.xlsx
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestCases!$A$1:$K$8</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -479,24 +479,6 @@
 validate4
 {
 validate_App_Launched_Device=com.android.gallery3d
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Manual specs
-};
-validate2
-{
-validate_PageTitle=Intent JS Test
-};
-validate3
-{
-validate_OldText_Exists=VT328_29
-};
-validate4
-{
-validate_App_Launched_Device=com.android.browser
 };</t>
   </si>
   <si>
@@ -1260,22 +1242,6 @@
 validate1;
 link_Click(intent_test_link);
 validate2;
-SelectTestToRun(VT328_29_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-validate4;
-SwitchApp(NATIVE_APP);
-wait(2);
-CheckUITextContains(Google);
-press_Key(Back);</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(intent_test_link);
-validate2;
 SelectTestToRun(VT328_45_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
@@ -1311,6 +1277,44 @@
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
 validate4;
+press_Key(Back);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Manual specs
+};
+validate2
+{
+validate_PageTitle=Intent JS Test
+};
+validate3
+{
+validate_OldText_Exists=VT328_29
+};
+validate4
+{
+validate_App_Launched_Device=com.android.browser
+};
+validate5
+{
+validate_CompareEditText=0,google
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(intent_test_link);
+validate2;
+SelectTestToRun(VT328_29_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+validate4;
+SwitchApp(NATIVE_APP);
+wait(2);
+validate5;
 press_Key(Back);</t>
   </si>
 </sst>
@@ -1805,7 +1809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1865,13 +1869,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="9">
         <v>1</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9" t="s">
@@ -2033,10 +2037,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -2060,10 +2064,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -2114,10 +2118,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -2168,10 +2172,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -2195,10 +2199,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -2225,7 +2229,7 @@
         <v>28</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -2249,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>55</v>
@@ -2276,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>56</v>
@@ -2303,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>57</v>
@@ -2330,7 +2334,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>58</v>
@@ -2357,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>59</v>
@@ -2384,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>60</v>
@@ -2393,7 +2397,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
     </row>
-    <row r="22" spans="1:11" ht="204">
+    <row r="22" spans="1:11" ht="255">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2411,10 +2415,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -2438,10 +2442,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -2465,10 +2469,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -2492,10 +2496,10 @@
         <v>1</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -2519,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -2546,10 +2550,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -2573,10 +2577,10 @@
         <v>1</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -2600,10 +2604,10 @@
         <v>1</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -2621,16 +2625,16 @@
         <v>10</v>
       </c>
       <c r="E30" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="9">
-        <v>1</v>
-      </c>
-      <c r="G30" s="9" t="s">
+      <c r="H30" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="229.5">
@@ -2645,14 +2649,14 @@
         <v>10</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="204">
@@ -2667,14 +2671,14 @@
         <v>10</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="165.75">
@@ -2695,10 +2699,10 @@
         <v>1</v>
       </c>
       <c r="G33" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="165.75">
@@ -2713,16 +2717,16 @@
         <v>10</v>
       </c>
       <c r="E34" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="9">
-        <v>1</v>
-      </c>
-      <c r="G34" s="9" t="s">
+      <c r="H34" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="216.75">
@@ -2737,16 +2741,16 @@
         <v>10</v>
       </c>
       <c r="E35" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="9">
-        <v>1</v>
-      </c>
-      <c r="G35" s="9" t="s">
+      <c r="H35" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="165.75">
@@ -2761,16 +2765,16 @@
         <v>10</v>
       </c>
       <c r="E36" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1</v>
+      </c>
+      <c r="G36" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F36" s="9">
-        <v>1</v>
-      </c>
-      <c r="G36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="165.75">
@@ -2785,16 +2789,16 @@
         <v>10</v>
       </c>
       <c r="E37" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="9">
+        <v>1</v>
+      </c>
+      <c r="G37" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F37" s="9">
-        <v>1</v>
-      </c>
-      <c r="G37" s="9" t="s">
+      <c r="H37" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
